--- a/branches/master/StructureDefinition-MedRecordTreatment.xlsx
+++ b/branches/master/StructureDefinition-MedRecordTreatment.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="480">
   <si>
     <t>Path</t>
   </si>
@@ -211,13 +211,190 @@
 </t>
   </si>
   <si>
-    <t>CarePlan.implicitRules</t>
+    <t>CarePlan.meta.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CarePlan.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CarePlan.meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>CarePlan.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>CarePlan.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>CarePlan.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>CarePlan.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>CarePlan.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>CarePlan.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -313,28 +490,10 @@
     <t>CarePlan.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>CarePlan.modifierExtension</t>
@@ -552,9 +711,6 @@
     <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
   </si>
   <si>
@@ -870,25 +1026,7 @@
     <t>CarePlan.activity.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>CarePlan.activity.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>CarePlan.activity.modifierExtension</t>
@@ -1524,7 +1662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM61"/>
+  <dimension ref="A1:AM69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1560,7 +1698,7 @@
     <col min="25" max="25" width="53.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="42.671875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2041,23 +2179,21 @@
         <v>43</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>67</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>43</v>
@@ -2106,7 +2242,7 @@
         <v>43</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
@@ -2118,13 +2254,13 @@
         <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>43</v>
@@ -2135,18 +2271,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>43</v>
@@ -2193,28 +2329,28 @@
         <v>43</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>77</v>
@@ -2223,19 +2359,19 @@
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>43</v>
@@ -2246,11 +2382,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2266,7 +2402,7 @@
         <v>43</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>80</v>
@@ -2346,7 +2482,7 @@
         <v>43</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>43</v>
@@ -2357,18 +2493,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>43</v>
@@ -2377,19 +2513,19 @@
         <v>43</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2439,25 +2575,25 @@
         <v>43</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>43</v>
@@ -2468,18 +2604,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>43</v>
@@ -2488,19 +2624,19 @@
         <v>43</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2550,25 +2686,25 @@
         <v>43</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>43</v>
@@ -2579,15 +2715,15 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>42</v>
@@ -2596,26 +2732,24 @@
         <v>43</v>
       </c>
       <c r="H10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I10" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>43</v>
       </c>
@@ -2663,7 +2797,7 @@
         <v>43</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2675,13 +2809,13 @@
         <v>43</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>43</v>
@@ -2690,9 +2824,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2706,7 +2840,7 @@
         <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>43</v>
@@ -2715,20 +2849,18 @@
         <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>43</v>
       </c>
@@ -2752,13 +2884,13 @@
         <v>43</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>43</v>
@@ -2776,7 +2908,7 @@
         <v>43</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2791,21 +2923,21 @@
         <v>62</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2828,15 +2960,17 @@
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>43</v>
@@ -2861,13 +2995,13 @@
         <v>43</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>43</v>
@@ -2885,7 +3019,7 @@
         <v>43</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2900,10 +3034,10 @@
         <v>62</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>43</v>
@@ -2912,9 +3046,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2925,28 +3059,28 @@
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2996,13 +3130,13 @@
         <v>43</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>43</v>
@@ -3011,10 +3145,10 @@
         <v>62</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>43</v>
@@ -3023,43 +3157,43 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>43</v>
       </c>
@@ -3083,13 +3217,13 @@
         <v>43</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>43</v>
@@ -3107,13 +3241,13 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>43</v>
@@ -3122,44 +3256,44 @@
         <v>62</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>137</v>
@@ -3170,9 +3304,7 @@
       <c r="M15" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>43</v>
       </c>
@@ -3220,13 +3352,13 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>43</v>
@@ -3235,11 +3367,11 @@
         <v>62</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="AL15" t="s" s="2">
         <v>43</v>
       </c>
@@ -3247,13 +3379,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>142</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3263,25 +3395,25 @@
         <v>42</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3331,7 +3463,7 @@
         <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3343,13 +3475,13 @@
         <v>43</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>43</v>
@@ -3358,45 +3490,43 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>43</v>
       </c>
@@ -3420,95 +3550,95 @@
         <v>43</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="AF17" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>51</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>43</v>
@@ -3533,13 +3663,13 @@
         <v>43</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>43</v>
@@ -3560,22 +3690,22 @@
         <v>157</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>43</v>
@@ -3586,7 +3716,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3609,19 +3739,19 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>43</v>
@@ -3646,13 +3776,13 @@
         <v>43</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>43</v>
@@ -3670,7 +3800,7 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3685,21 +3815,21 @@
         <v>62</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>43</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3710,10 +3840,10 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>43</v>
@@ -3722,13 +3852,13 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3779,13 +3909,13 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>43</v>
@@ -3794,10 +3924,10 @@
         <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>43</v>
@@ -3808,7 +3938,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3819,7 +3949,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>51</v>
@@ -3831,18 +3961,18 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>43</v>
       </c>
@@ -3890,13 +4020,13 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>43</v>
@@ -3905,13 +4035,13 @@
         <v>62</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>43</v>
@@ -3919,18 +4049,18 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>51</v>
@@ -3942,16 +4072,18 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>43</v>
       </c>
@@ -3999,13 +4131,13 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>43</v>
@@ -4014,32 +4146,32 @@
         <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>191</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>51</v>
@@ -4051,18 +4183,20 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>43</v>
       </c>
@@ -4110,13 +4244,13 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>43</v>
@@ -4125,32 +4259,32 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>200</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>51</v>
@@ -4162,20 +4296,18 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>43</v>
       </c>
@@ -4223,13 +4355,13 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>43</v>
@@ -4238,29 +4370,29 @@
         <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>211</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>50</v>
@@ -4269,22 +4401,26 @@
         <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>43</v>
       </c>
@@ -4308,13 +4444,13 @@
         <v>43</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>43</v>
@@ -4332,10 +4468,10 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>50</v>
@@ -4347,21 +4483,21 @@
         <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>43</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4369,7 +4505,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>50</v>
@@ -4378,24 +4514,26 @@
         <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>221</v>
+        <v>126</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>43</v>
       </c>
@@ -4419,13 +4557,13 @@
         <v>43</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>43</v>
@@ -4443,10 +4581,10 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>50</v>
@@ -4458,13 +4596,13 @@
         <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
@@ -4472,7 +4610,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4492,21 +4630,23 @@
         <v>43</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>43</v>
       </c>
@@ -4530,13 +4670,13 @@
         <v>43</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>43</v>
@@ -4554,7 +4694,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4575,7 +4715,7 @@
         <v>43</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>43</v>
@@ -4583,7 +4723,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4594,7 +4734,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>51</v>
@@ -4603,21 +4743,19 @@
         <v>43</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>235</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>43</v>
       </c>
@@ -4665,13 +4803,13 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>43</v>
@@ -4680,13 +4818,13 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>237</v>
+        <v>43</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>43</v>
@@ -4694,7 +4832,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4705,7 +4843,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>51</v>
@@ -4717,19 +4855,17 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>239</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>43</v>
@@ -4778,13 +4914,13 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>43</v>
@@ -4793,32 +4929,32 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>247</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>51</v>
@@ -4827,23 +4963,19 @@
         <v>43</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>43</v>
       </c>
@@ -4891,13 +5023,13 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>43</v>
@@ -4906,21 +5038,21 @@
         <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>43</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4931,7 +5063,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>51</v>
@@ -4940,23 +5072,21 @@
         <v>43</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>43</v>
       </c>
@@ -5004,13 +5134,13 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>43</v>
@@ -5019,54 +5149,56 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>43</v>
+        <v>247</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>43</v>
+        <v>252</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="N32" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>43</v>
@@ -5115,40 +5247,40 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>268</v>
+        <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>43</v>
+        <v>261</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5158,22 +5290,22 @@
         <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5224,7 +5356,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5236,56 +5368,56 @@
         <v>43</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>43</v>
+        <v>269</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>96</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>97</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5335,40 +5467,40 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>275</v>
+        <v>43</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5378,29 +5510,27 @@
         <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>96</v>
+        <v>271</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>43</v>
       </c>
@@ -5448,7 +5578,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5460,13 +5590,13 @@
         <v>43</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>43</v>
@@ -5475,9 +5605,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5491,7 +5621,7 @@
         <v>42</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>43</v>
@@ -5500,18 +5630,18 @@
         <v>43</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>166</v>
+        <v>282</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>43</v>
       </c>
@@ -5535,13 +5665,13 @@
         <v>43</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>288</v>
+        <v>43</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>43</v>
@@ -5559,7 +5689,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5574,21 +5704,21 @@
         <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>43</v>
+        <v>286</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>43</v>
+        <v>287</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5602,28 +5732,28 @@
         <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>43</v>
@@ -5672,7 +5802,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5687,21 +5817,21 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>43</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5715,7 +5845,7 @@
         <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>43</v>
@@ -5724,19 +5854,19 @@
         <v>43</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>43</v>
@@ -5785,7 +5915,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5800,19 +5930,19 @@
         <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>304</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>305</v>
       </c>
@@ -5825,10 +5955,10 @@
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>43</v>
@@ -5904,25 +6034,25 @@
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>311</v>
+        <v>43</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>43</v>
       </c>
     </row>
     <row r="40" hidden="true">
@@ -5938,7 +6068,7 @@
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>43</v>
@@ -5950,17 +6080,17 @@
         <v>43</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>43</v>
@@ -6015,19 +6145,19 @@
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>311</v>
+        <v>43</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>43</v>
@@ -6038,7 +6168,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6064,10 +6194,10 @@
         <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>272</v>
+        <v>64</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>273</v>
+        <v>65</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6118,7 +6248,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>274</v>
+        <v>66</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6136,7 +6266,7 @@
         <v>43</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>275</v>
+        <v>67</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>43</v>
@@ -6147,11 +6277,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6170,16 +6300,16 @@
         <v>43</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>277</v>
+        <v>72</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6229,7 +6359,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6241,13 +6371,13 @@
         <v>43</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>275</v>
+        <v>67</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>43</v>
@@ -6258,11 +6388,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6281,19 +6411,19 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>43</v>
@@ -6342,7 +6472,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6354,13 +6484,13 @@
         <v>43</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>43</v>
@@ -6371,7 +6501,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6382,7 +6512,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>43</v>
@@ -6394,18 +6524,18 @@
         <v>43</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>43</v>
       </c>
@@ -6429,13 +6559,13 @@
         <v>43</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>43</v>
@@ -6453,13 +6583,13 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>43</v>
@@ -6471,7 +6601,7 @@
         <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>327</v>
+        <v>43</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>43</v>
@@ -6482,7 +6612,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6505,17 +6635,19 @@
         <v>43</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>119</v>
+        <v>335</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="N45" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>43</v>
@@ -6564,7 +6696,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6579,10 +6711,10 @@
         <v>62</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>121</v>
+        <v>339</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>122</v>
+        <v>340</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>43</v>
@@ -6593,7 +6725,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6616,19 +6748,19 @@
         <v>43</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>64</v>
+        <v>342</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>124</v>
+        <v>343</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>126</v>
+        <v>345</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>43</v>
@@ -6677,7 +6809,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6692,21 +6824,21 @@
         <v>62</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>122</v>
+        <v>347</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>43</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6729,19 +6861,19 @@
         <v>43</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>166</v>
+        <v>350</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>43</v>
@@ -6766,13 +6898,13 @@
         <v>43</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>339</v>
+        <v>43</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>43</v>
@@ -6790,7 +6922,7 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6799,27 +6931,27 @@
         <v>50</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>62</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>343</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6830,7 +6962,7 @@
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>43</v>
@@ -6842,18 +6974,18 @@
         <v>43</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>166</v>
+        <v>314</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>43</v>
       </c>
@@ -6877,13 +7009,13 @@
         <v>43</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>348</v>
+        <v>43</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>349</v>
+        <v>43</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>43</v>
@@ -6901,25 +7033,25 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>62</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>350</v>
+        <v>43</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>43</v>
+        <v>361</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>43</v>
@@ -6930,7 +7062,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6941,7 +7073,7 @@
         <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>43</v>
@@ -6953,17 +7085,15 @@
         <v>43</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>352</v>
+        <v>52</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>353</v>
+        <v>64</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>43</v>
@@ -7012,25 +7142,25 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>351</v>
+        <v>66</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>43</v>
@@ -7041,11 +7171,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7064,18 +7194,18 @@
         <v>43</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>256</v>
+        <v>70</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>357</v>
+        <v>71</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>43</v>
       </c>
@@ -7123,7 +7253,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7135,13 +7265,13 @@
         <v>43</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>261</v>
+        <v>67</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>43</v>
@@ -7152,18 +7282,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>43</v>
@@ -7172,22 +7302,22 @@
         <v>51</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>363</v>
+        <v>73</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>364</v>
+        <v>156</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>43</v>
@@ -7212,13 +7342,13 @@
         <v>43</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>365</v>
+        <v>43</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>366</v>
+        <v>43</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>43</v>
@@ -7236,36 +7366,36 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>367</v>
+        <v>43</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>368</v>
+        <v>149</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>369</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7288,18 +7418,18 @@
         <v>43</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>43</v>
       </c>
@@ -7323,13 +7453,13 @@
         <v>43</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>43</v>
+        <v>369</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>43</v>
+        <v>370</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>43</v>
@@ -7347,7 +7477,7 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7362,10 +7492,10 @@
         <v>62</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>374</v>
+        <v>43</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>43</v>
+        <v>371</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>43</v>
@@ -7376,7 +7506,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7387,38 +7517,34 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>377</v>
+        <v>170</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="P53" t="s" s="2">
-        <v>381</v>
-      </c>
+      <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
         <v>43</v>
       </c>
@@ -7462,13 +7588,13 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>43</v>
@@ -7477,10 +7603,10 @@
         <v>62</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>382</v>
+        <v>172</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>383</v>
+        <v>173</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>43</v>
@@ -7491,7 +7617,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7502,7 +7628,7 @@
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>43</v>
@@ -7514,17 +7640,19 @@
         <v>43</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>385</v>
+        <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>386</v>
+        <v>175</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="N54" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>43</v>
@@ -7573,13 +7701,13 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>43</v>
@@ -7588,21 +7716,21 @@
         <v>62</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>389</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7625,19 +7753,19 @@
         <v>43</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>391</v>
+        <v>217</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>43</v>
@@ -7662,13 +7790,13 @@
         <v>43</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>43</v>
+        <v>384</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>43</v>
@@ -7686,7 +7814,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7701,21 +7829,21 @@
         <v>62</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>43</v>
+        <v>385</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7738,20 +7866,18 @@
         <v>43</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>43</v>
       </c>
@@ -7775,13 +7901,13 @@
         <v>43</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>43</v>
+        <v>392</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>43</v>
+        <v>393</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>43</v>
@@ -7799,7 +7925,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7814,21 +7940,21 @@
         <v>62</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>404</v>
+        <v>43</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>405</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7839,7 +7965,7 @@
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>43</v>
@@ -7851,15 +7977,17 @@
         <v>43</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -7884,13 +8012,13 @@
         <v>43</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>410</v>
+        <v>43</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>411</v>
+        <v>43</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>43</v>
@@ -7908,13 +8036,13 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>43</v>
@@ -7923,32 +8051,32 @@
         <v>62</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>412</v>
+        <v>43</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>413</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>415</v>
+        <v>43</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>43</v>
@@ -7960,17 +8088,17 @@
         <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>43</v>
@@ -8019,13 +8147,13 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>43</v>
@@ -8037,18 +8165,18 @@
         <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>421</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8056,7 +8184,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>50</v>
@@ -8065,22 +8193,26 @@
         <v>43</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>416</v>
+        <v>126</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
       </c>
@@ -8104,13 +8236,13 @@
         <v>43</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>43</v>
+        <v>409</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>43</v>
+        <v>410</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>43</v>
@@ -8128,10 +8260,10 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>50</v>
@@ -8143,21 +8275,21 @@
         <v>62</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>43</v>
+        <v>411</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8180,15 +8312,17 @@
         <v>43</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>43</v>
@@ -8237,7 +8371,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8252,21 +8386,21 @@
         <v>62</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>43</v>
+        <v>418</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>430</v>
+        <v>43</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>304</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8277,34 +8411,38 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H61" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H61" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="I61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="N61" t="s" s="2">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="P61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="Q61" t="s" s="2">
         <v>43</v>
       </c>
@@ -8348,13 +8486,13 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>43</v>
@@ -8363,20 +8501,906 @@
         <v>62</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J63" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AK61" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>304</v>
+      <c r="K63" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM61">
+  <autoFilter ref="A1:AM69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8386,7 +9410,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
